--- a/VistasEnDesarrollo.xlsx
+++ b/VistasEnDesarrollo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Vistas</t>
   </si>
@@ -51,7 +51,16 @@
     <t>Observación</t>
   </si>
   <si>
-    <t>Ninguna</t>
+    <t>A la espera de obervaciones</t>
+  </si>
+  <si>
+    <t>En proceso de limpieza de codigo para agilizar el despliegue</t>
+  </si>
+  <si>
+    <t>Mejorando la visualización de Mobiles</t>
+  </si>
+  <si>
+    <t>Mejorando el filtro en mobiles</t>
   </si>
 </sst>
 </file>
@@ -400,13 +409,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="64.5703125" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -439,7 +449,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -450,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -461,7 +471,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
